--- a/WebApp/Reports/Modelo_Folha_A1_Insp_Rotineira.xlsx
+++ b/WebApp/Reports/Modelo_Folha_A1_Insp_Rotineira.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="195">
   <si>
     <r>
       <t xml:space="preserve">DEPARTAMENTO DE ESTRADAS DE RODAGEM DO ESTADO DE SÃO PAULO - DER/SP                                                                                                                                                                                                                                                                   </t>
@@ -785,6 +785,24 @@
   </si>
   <si>
     <t>[txt_historico_Pontuacao_Geral_OAE_3]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OBSERVAÇÕES:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Cadastrar e associar o Desenho Técnico da Inspeção Rotineira à Obra de Arte e à Ordem de Serviço da Inspeção Rotineira;
+2. Encerrar a Ordem de Serviço após a associação do Desenho para que a seção de OAE seja notificada.
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1084,7 +1102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="114">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -1769,19 +1787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -2447,6 +2452,30 @@
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2457,7 +2486,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2725,26 +2754,26 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2756,13 +2785,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2771,49 +2800,49 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2822,7 +2851,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2834,7 +2863,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2846,14 +2875,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2861,13 +2902,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="96" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="95" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="98" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="97" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2876,26 +2914,29 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="98" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="99" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="100" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2903,42 +2944,39 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2963,58 +3001,58 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="8" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3023,6 +3061,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3059,7 +3106,7 @@
     <xf numFmtId="164" fontId="19" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="77" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3071,12 +3118,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3086,45 +3133,45 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="6" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="27" fillId="6" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="6" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3134,26 +3181,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -3167,8 +3217,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3177,94 +3227,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3623,7 +3658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:V1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3922,16 +3959,16 @@
       <c r="P9" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="147" t="s">
+      <c r="Q9" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="148"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="150" t="s">
+      <c r="R9" s="151"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="150"/>
-      <c r="V9" s="151"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="154"/>
     </row>
     <row r="10" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -3956,16 +3993,16 @@
       <c r="P10" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="Q10" s="152" t="s">
+      <c r="Q10" s="155" t="s">
         <v>188</v>
       </c>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="154" t="s">
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="157" t="s">
         <v>191</v>
       </c>
-      <c r="U10" s="154"/>
-      <c r="V10" s="155"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="158"/>
     </row>
     <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -3990,16 +4027,16 @@
       <c r="P11" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="Q11" s="153" t="s">
+      <c r="Q11" s="156" t="s">
         <v>189</v>
       </c>
-      <c r="R11" s="153"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="154" t="s">
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="157" t="s">
         <v>192</v>
       </c>
-      <c r="U11" s="154"/>
-      <c r="V11" s="155"/>
+      <c r="U11" s="157"/>
+      <c r="V11" s="158"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -4024,16 +4061,16 @@
       <c r="P12" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="Q12" s="156" t="s">
+      <c r="Q12" s="159" t="s">
         <v>190</v>
       </c>
-      <c r="R12" s="157"/>
-      <c r="S12" s="158"/>
-      <c r="T12" s="159" t="s">
+      <c r="R12" s="160"/>
+      <c r="S12" s="161"/>
+      <c r="T12" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="U12" s="159"/>
-      <c r="V12" s="160"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="163"/>
     </row>
     <row r="13" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -11402,7 +11439,7 @@
       <c r="T312" s="34"/>
       <c r="U312" s="35"/>
       <c r="V312" s="105"/>
-      <c r="AA312" s="178"/>
+      <c r="AA312" s="181"/>
     </row>
     <row r="313" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A313" s="36"/>
@@ -11415,21 +11452,21 @@
       <c r="H313" s="37"/>
       <c r="I313" s="38"/>
       <c r="J313" s="30"/>
-      <c r="K313" s="179"/>
-      <c r="L313" s="180"/>
+      <c r="K313" s="182"/>
+      <c r="L313" s="183"/>
       <c r="M313" s="5"/>
-      <c r="N313" s="183" t="s">
+      <c r="N313" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="O313" s="184"/>
-      <c r="P313" s="184"/>
-      <c r="Q313" s="184"/>
-      <c r="R313" s="184"/>
-      <c r="S313" s="184"/>
-      <c r="T313" s="184"/>
-      <c r="U313" s="184"/>
-      <c r="V313" s="185"/>
-      <c r="AA313" s="178"/>
+      <c r="O313" s="187"/>
+      <c r="P313" s="187"/>
+      <c r="Q313" s="187"/>
+      <c r="R313" s="187"/>
+      <c r="S313" s="187"/>
+      <c r="T313" s="187"/>
+      <c r="U313" s="187"/>
+      <c r="V313" s="188"/>
+      <c r="AA313" s="181"/>
       <c r="AB313" s="39"/>
     </row>
     <row r="314" spans="1:28" x14ac:dyDescent="0.2">
@@ -11443,10 +11480,10 @@
       <c r="H314" s="40"/>
       <c r="I314" s="41"/>
       <c r="J314" s="30"/>
-      <c r="K314" s="181"/>
-      <c r="L314" s="182"/>
+      <c r="K314" s="184"/>
+      <c r="L314" s="185"/>
       <c r="M314" s="5"/>
-      <c r="N314" s="186" t="s">
+      <c r="N314" s="189" t="s">
         <v>32</v>
       </c>
       <c r="O314" s="91" t="s">
@@ -11455,13 +11492,13 @@
       <c r="P314" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="Q314" s="189"/>
-      <c r="R314" s="190"/>
-      <c r="S314" s="190"/>
-      <c r="T314" s="190"/>
-      <c r="U314" s="190"/>
-      <c r="V314" s="191"/>
-      <c r="AA314" s="178"/>
+      <c r="Q314" s="192"/>
+      <c r="R314" s="193"/>
+      <c r="S314" s="193"/>
+      <c r="T314" s="193"/>
+      <c r="U314" s="193"/>
+      <c r="V314" s="194"/>
+      <c r="AA314" s="181"/>
       <c r="AB314" s="39"/>
     </row>
     <row r="315" spans="1:28" x14ac:dyDescent="0.2">
@@ -11475,23 +11512,23 @@
       <c r="H315" s="40"/>
       <c r="I315" s="41"/>
       <c r="J315" s="30"/>
-      <c r="K315" s="181"/>
-      <c r="L315" s="182"/>
+      <c r="K315" s="184"/>
+      <c r="L315" s="185"/>
       <c r="M315" s="5"/>
-      <c r="N315" s="187"/>
+      <c r="N315" s="190"/>
       <c r="O315" s="93" t="s">
         <v>34</v>
       </c>
       <c r="P315" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="Q315" s="192"/>
-      <c r="R315" s="193"/>
-      <c r="S315" s="193"/>
-      <c r="T315" s="193"/>
-      <c r="U315" s="193"/>
-      <c r="V315" s="194"/>
-      <c r="AA315" s="178"/>
+      <c r="Q315" s="195"/>
+      <c r="R315" s="196"/>
+      <c r="S315" s="196"/>
+      <c r="T315" s="196"/>
+      <c r="U315" s="196"/>
+      <c r="V315" s="197"/>
+      <c r="AA315" s="181"/>
       <c r="AB315" s="39"/>
     </row>
     <row r="316" spans="1:28" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -11505,22 +11542,22 @@
       <c r="H316" s="40"/>
       <c r="I316" s="41"/>
       <c r="J316" s="30"/>
-      <c r="K316" s="181"/>
-      <c r="L316" s="182"/>
+      <c r="K316" s="184"/>
+      <c r="L316" s="185"/>
       <c r="M316" s="5"/>
-      <c r="N316" s="188"/>
+      <c r="N316" s="191"/>
       <c r="O316" s="95" t="s">
         <v>35</v>
       </c>
       <c r="P316" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="Q316" s="195"/>
-      <c r="R316" s="196"/>
-      <c r="S316" s="196"/>
-      <c r="T316" s="196"/>
-      <c r="U316" s="196"/>
-      <c r="V316" s="197"/>
+      <c r="Q316" s="198"/>
+      <c r="R316" s="199"/>
+      <c r="S316" s="199"/>
+      <c r="T316" s="199"/>
+      <c r="U316" s="199"/>
+      <c r="V316" s="200"/>
     </row>
     <row r="317" spans="1:28" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A317" s="36"/>
@@ -11533,18 +11570,18 @@
       <c r="H317" s="40"/>
       <c r="I317" s="41"/>
       <c r="J317" s="30"/>
-      <c r="K317" s="181"/>
-      <c r="L317" s="182"/>
+      <c r="K317" s="184"/>
+      <c r="L317" s="185"/>
       <c r="M317" s="5"/>
-      <c r="N317" s="198" t="s">
+      <c r="N317" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="O317" s="199"/>
-      <c r="P317" s="199"/>
-      <c r="Q317" s="199"/>
-      <c r="R317" s="199"/>
-      <c r="S317" s="199"/>
-      <c r="T317" s="200"/>
+      <c r="O317" s="202"/>
+      <c r="P317" s="202"/>
+      <c r="Q317" s="202"/>
+      <c r="R317" s="202"/>
+      <c r="S317" s="202"/>
+      <c r="T317" s="203"/>
       <c r="U317" s="42" t="s">
         <v>37</v>
       </c>
@@ -11563,20 +11600,20 @@
       <c r="H318" s="40"/>
       <c r="I318" s="41"/>
       <c r="J318" s="45"/>
-      <c r="K318" s="181"/>
-      <c r="L318" s="182"/>
+      <c r="K318" s="184"/>
+      <c r="L318" s="185"/>
       <c r="M318" s="45"/>
-      <c r="N318" s="161" t="s">
+      <c r="N318" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="O318" s="162"/>
-      <c r="P318" s="162"/>
-      <c r="Q318" s="162"/>
-      <c r="R318" s="162"/>
-      <c r="S318" s="162"/>
-      <c r="T318" s="162"/>
-      <c r="U318" s="162"/>
-      <c r="V318" s="163"/>
+      <c r="O318" s="165"/>
+      <c r="P318" s="165"/>
+      <c r="Q318" s="165"/>
+      <c r="R318" s="165"/>
+      <c r="S318" s="165"/>
+      <c r="T318" s="165"/>
+      <c r="U318" s="165"/>
+      <c r="V318" s="166"/>
     </row>
     <row r="319" spans="1:28" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A319" s="44"/>
@@ -11589,8 +11626,8 @@
       <c r="H319" s="40"/>
       <c r="I319" s="41"/>
       <c r="J319" s="45"/>
-      <c r="K319" s="181"/>
-      <c r="L319" s="182"/>
+      <c r="K319" s="184"/>
+      <c r="L319" s="185"/>
       <c r="M319" s="45"/>
       <c r="N319" s="47" t="s">
         <v>39</v>
@@ -11598,15 +11635,15 @@
       <c r="O319" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="P319" s="201" t="s">
+      <c r="P319" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="Q319" s="201"/>
-      <c r="R319" s="201"/>
-      <c r="S319" s="201"/>
-      <c r="T319" s="201"/>
-      <c r="U319" s="201"/>
-      <c r="V319" s="202"/>
+      <c r="Q319" s="204"/>
+      <c r="R319" s="204"/>
+      <c r="S319" s="204"/>
+      <c r="T319" s="204"/>
+      <c r="U319" s="204"/>
+      <c r="V319" s="205"/>
     </row>
     <row r="320" spans="1:28" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="44"/>
@@ -11619,8 +11656,8 @@
       <c r="H320" s="40"/>
       <c r="I320" s="41"/>
       <c r="J320" s="45"/>
-      <c r="K320" s="181"/>
-      <c r="L320" s="182"/>
+      <c r="K320" s="184"/>
+      <c r="L320" s="185"/>
       <c r="M320" s="45"/>
       <c r="N320" s="49" t="s">
         <v>41</v>
@@ -11628,15 +11665,15 @@
       <c r="O320" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="P320" s="278" t="s">
+      <c r="P320" s="206" t="s">
         <v>147</v>
       </c>
-      <c r="Q320" s="279"/>
-      <c r="R320" s="279"/>
-      <c r="S320" s="279"/>
-      <c r="T320" s="279"/>
-      <c r="U320" s="279"/>
-      <c r="V320" s="280"/>
+      <c r="Q320" s="207"/>
+      <c r="R320" s="207"/>
+      <c r="S320" s="207"/>
+      <c r="T320" s="207"/>
+      <c r="U320" s="207"/>
+      <c r="V320" s="208"/>
     </row>
     <row r="321" spans="1:31" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="44"/>
@@ -11649,8 +11686,8 @@
       <c r="H321" s="40"/>
       <c r="I321" s="41"/>
       <c r="J321" s="45"/>
-      <c r="K321" s="181"/>
-      <c r="L321" s="182"/>
+      <c r="K321" s="184"/>
+      <c r="L321" s="185"/>
       <c r="M321" s="45"/>
       <c r="N321" s="51" t="s">
         <v>42</v>
@@ -11658,15 +11695,15 @@
       <c r="O321" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="P321" s="281" t="s">
+      <c r="P321" s="147" t="s">
         <v>148</v>
       </c>
-      <c r="Q321" s="282"/>
-      <c r="R321" s="282"/>
-      <c r="S321" s="282"/>
-      <c r="T321" s="282"/>
-      <c r="U321" s="282"/>
-      <c r="V321" s="283"/>
+      <c r="Q321" s="148"/>
+      <c r="R321" s="148"/>
+      <c r="S321" s="148"/>
+      <c r="T321" s="148"/>
+      <c r="U321" s="148"/>
+      <c r="V321" s="149"/>
     </row>
     <row r="322" spans="1:31" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A322" s="44"/>
@@ -11679,22 +11716,22 @@
       <c r="H322" s="40"/>
       <c r="I322" s="41"/>
       <c r="J322" s="45"/>
-      <c r="K322" s="181"/>
-      <c r="L322" s="182"/>
+      <c r="K322" s="184"/>
+      <c r="L322" s="185"/>
       <c r="M322" s="45"/>
-      <c r="N322" s="171" t="s">
+      <c r="N322" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="O322" s="172"/>
-      <c r="P322" s="172"/>
-      <c r="Q322" s="172"/>
-      <c r="R322" s="172"/>
-      <c r="S322" s="172"/>
-      <c r="T322" s="172"/>
-      <c r="U322" s="173" t="s">
+      <c r="O322" s="175"/>
+      <c r="P322" s="175"/>
+      <c r="Q322" s="175"/>
+      <c r="R322" s="175"/>
+      <c r="S322" s="175"/>
+      <c r="T322" s="175"/>
+      <c r="U322" s="176" t="s">
         <v>149</v>
       </c>
-      <c r="V322" s="174"/>
+      <c r="V322" s="177"/>
     </row>
     <row r="323" spans="1:31" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A323" s="44"/>
@@ -11707,18 +11744,18 @@
       <c r="H323" s="40"/>
       <c r="I323" s="41"/>
       <c r="J323" s="45"/>
-      <c r="K323" s="181"/>
-      <c r="L323" s="182"/>
+      <c r="K323" s="184"/>
+      <c r="L323" s="185"/>
       <c r="M323" s="45"/>
-      <c r="N323" s="175"/>
-      <c r="O323" s="176"/>
-      <c r="P323" s="176"/>
-      <c r="Q323" s="176"/>
-      <c r="R323" s="176"/>
-      <c r="S323" s="176"/>
-      <c r="T323" s="176"/>
-      <c r="U323" s="176"/>
-      <c r="V323" s="177"/>
+      <c r="N323" s="178"/>
+      <c r="O323" s="179"/>
+      <c r="P323" s="179"/>
+      <c r="Q323" s="179"/>
+      <c r="R323" s="179"/>
+      <c r="S323" s="179"/>
+      <c r="T323" s="179"/>
+      <c r="U323" s="179"/>
+      <c r="V323" s="180"/>
     </row>
     <row r="324" spans="1:31" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="44"/>
@@ -11731,17 +11768,17 @@
       <c r="K324" s="53"/>
       <c r="L324" s="54"/>
       <c r="M324" s="45"/>
-      <c r="N324" s="161" t="s">
+      <c r="N324" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="O324" s="162"/>
-      <c r="P324" s="162"/>
-      <c r="Q324" s="162"/>
-      <c r="R324" s="162"/>
-      <c r="S324" s="162"/>
-      <c r="T324" s="162"/>
-      <c r="U324" s="162"/>
-      <c r="V324" s="163"/>
+      <c r="O324" s="165"/>
+      <c r="P324" s="165"/>
+      <c r="Q324" s="165"/>
+      <c r="R324" s="165"/>
+      <c r="S324" s="165"/>
+      <c r="T324" s="165"/>
+      <c r="U324" s="165"/>
+      <c r="V324" s="166"/>
     </row>
     <row r="325" spans="1:31" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="44"/>
@@ -11757,21 +11794,21 @@
       <c r="K325" s="53"/>
       <c r="L325" s="55"/>
       <c r="M325" s="45"/>
-      <c r="N325" s="164" t="s">
+      <c r="N325" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="O325" s="165"/>
-      <c r="P325" s="165"/>
-      <c r="Q325" s="166"/>
-      <c r="R325" s="167" t="s">
+      <c r="O325" s="168"/>
+      <c r="P325" s="168"/>
+      <c r="Q325" s="169"/>
+      <c r="R325" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="S325" s="168"/>
-      <c r="T325" s="169"/>
-      <c r="U325" s="167" t="s">
+      <c r="S325" s="171"/>
+      <c r="T325" s="172"/>
+      <c r="U325" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="V325" s="170"/>
+      <c r="V325" s="173"/>
     </row>
     <row r="326" spans="1:31" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A326" s="44"/>
@@ -11784,21 +11821,21 @@
       <c r="K326" s="53"/>
       <c r="L326" s="54"/>
       <c r="M326" s="45"/>
-      <c r="N326" s="203" t="s">
+      <c r="N326" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="O326" s="204"/>
-      <c r="P326" s="204"/>
-      <c r="Q326" s="205"/>
-      <c r="R326" s="211" t="s">
+      <c r="O326" s="210"/>
+      <c r="P326" s="210"/>
+      <c r="Q326" s="211"/>
+      <c r="R326" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="S326" s="212"/>
-      <c r="T326" s="213"/>
-      <c r="U326" s="214" t="s">
+      <c r="S326" s="218"/>
+      <c r="T326" s="219"/>
+      <c r="U326" s="220" t="s">
         <v>161</v>
       </c>
-      <c r="V326" s="215"/>
+      <c r="V326" s="221"/>
     </row>
     <row r="327" spans="1:31" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A327" s="44"/>
@@ -11814,21 +11851,21 @@
       <c r="K327" s="56"/>
       <c r="L327" s="57"/>
       <c r="M327" s="45"/>
-      <c r="N327" s="203" t="s">
+      <c r="N327" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="O327" s="204"/>
-      <c r="P327" s="204"/>
-      <c r="Q327" s="205"/>
-      <c r="R327" s="216" t="s">
+      <c r="O327" s="210"/>
+      <c r="P327" s="210"/>
+      <c r="Q327" s="211"/>
+      <c r="R327" s="222" t="s">
         <v>151</v>
       </c>
-      <c r="S327" s="217"/>
-      <c r="T327" s="218"/>
-      <c r="U327" s="209" t="s">
+      <c r="S327" s="223"/>
+      <c r="T327" s="224"/>
+      <c r="U327" s="215" t="s">
         <v>160</v>
       </c>
-      <c r="V327" s="210"/>
+      <c r="V327" s="216"/>
     </row>
     <row r="328" spans="1:31" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A328" s="44"/>
@@ -11852,21 +11889,21 @@
       </c>
       <c r="L328" s="58"/>
       <c r="M328" s="45"/>
-      <c r="N328" s="203" t="s">
+      <c r="N328" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="O328" s="204"/>
-      <c r="P328" s="204"/>
-      <c r="Q328" s="205"/>
-      <c r="R328" s="216" t="s">
+      <c r="O328" s="210"/>
+      <c r="P328" s="210"/>
+      <c r="Q328" s="211"/>
+      <c r="R328" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="S328" s="217"/>
-      <c r="T328" s="218"/>
-      <c r="U328" s="214" t="s">
+      <c r="S328" s="223"/>
+      <c r="T328" s="224"/>
+      <c r="U328" s="220" t="s">
         <v>162</v>
       </c>
-      <c r="V328" s="215"/>
+      <c r="V328" s="221"/>
     </row>
     <row r="329" spans="1:31" s="46" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A329" s="44"/>
@@ -11882,21 +11919,21 @@
       <c r="K329" s="59"/>
       <c r="L329" s="59"/>
       <c r="M329" s="45"/>
-      <c r="N329" s="203" t="s">
+      <c r="N329" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="O329" s="204"/>
-      <c r="P329" s="204"/>
-      <c r="Q329" s="205"/>
-      <c r="R329" s="206" t="s">
+      <c r="O329" s="210"/>
+      <c r="P329" s="210"/>
+      <c r="Q329" s="211"/>
+      <c r="R329" s="212" t="s">
         <v>153</v>
       </c>
-      <c r="S329" s="207"/>
-      <c r="T329" s="208"/>
-      <c r="U329" s="209" t="s">
+      <c r="S329" s="213"/>
+      <c r="T329" s="214"/>
+      <c r="U329" s="215" t="s">
         <v>163</v>
       </c>
-      <c r="V329" s="210"/>
+      <c r="V329" s="216"/>
     </row>
     <row r="330" spans="1:31" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="44"/>
@@ -11912,21 +11949,21 @@
       <c r="K330" s="37"/>
       <c r="L330" s="38"/>
       <c r="M330" s="45"/>
-      <c r="N330" s="203" t="s">
+      <c r="N330" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="O330" s="204"/>
-      <c r="P330" s="204"/>
-      <c r="Q330" s="205"/>
-      <c r="R330" s="206" t="s">
+      <c r="O330" s="210"/>
+      <c r="P330" s="210"/>
+      <c r="Q330" s="211"/>
+      <c r="R330" s="212" t="s">
         <v>154</v>
       </c>
-      <c r="S330" s="207"/>
-      <c r="T330" s="208"/>
-      <c r="U330" s="214" t="s">
+      <c r="S330" s="213"/>
+      <c r="T330" s="214"/>
+      <c r="U330" s="220" t="s">
         <v>164</v>
       </c>
-      <c r="V330" s="215"/>
+      <c r="V330" s="221"/>
       <c r="AB330" s="60" t="s">
         <v>57</v>
       </c>
@@ -11954,21 +11991,21 @@
       <c r="K331" s="40"/>
       <c r="L331" s="41"/>
       <c r="M331" s="45"/>
-      <c r="N331" s="203" t="s">
+      <c r="N331" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="O331" s="204"/>
-      <c r="P331" s="204"/>
-      <c r="Q331" s="205"/>
-      <c r="R331" s="216" t="s">
+      <c r="O331" s="210"/>
+      <c r="P331" s="210"/>
+      <c r="Q331" s="211"/>
+      <c r="R331" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="S331" s="217"/>
-      <c r="T331" s="218"/>
-      <c r="U331" s="209" t="s">
+      <c r="S331" s="223"/>
+      <c r="T331" s="224"/>
+      <c r="U331" s="215" t="s">
         <v>165</v>
       </c>
-      <c r="V331" s="210"/>
+      <c r="V331" s="216"/>
       <c r="AB331" s="60"/>
       <c r="AC331" s="60" t="s">
         <v>61</v>
@@ -11994,21 +12031,21 @@
       <c r="K332" s="40"/>
       <c r="L332" s="41"/>
       <c r="M332" s="45"/>
-      <c r="N332" s="203" t="s">
+      <c r="N332" s="209" t="s">
         <v>62</v>
       </c>
-      <c r="O332" s="204"/>
-      <c r="P332" s="204"/>
-      <c r="Q332" s="205"/>
-      <c r="R332" s="216" t="s">
+      <c r="O332" s="210"/>
+      <c r="P332" s="210"/>
+      <c r="Q332" s="211"/>
+      <c r="R332" s="222" t="s">
         <v>156</v>
       </c>
-      <c r="S332" s="217"/>
-      <c r="T332" s="218"/>
-      <c r="U332" s="214" t="s">
+      <c r="S332" s="223"/>
+      <c r="T332" s="224"/>
+      <c r="U332" s="220" t="s">
         <v>166</v>
       </c>
-      <c r="V332" s="215"/>
+      <c r="V332" s="221"/>
       <c r="AB332" s="60"/>
       <c r="AC332" s="60" t="s">
         <v>63</v>
@@ -12034,21 +12071,21 @@
       <c r="K333" s="40"/>
       <c r="L333" s="41"/>
       <c r="M333" s="45"/>
-      <c r="N333" s="203" t="s">
+      <c r="N333" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="O333" s="204"/>
-      <c r="P333" s="204"/>
-      <c r="Q333" s="205"/>
-      <c r="R333" s="216" t="s">
+      <c r="O333" s="210"/>
+      <c r="P333" s="210"/>
+      <c r="Q333" s="211"/>
+      <c r="R333" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="S333" s="217"/>
-      <c r="T333" s="218"/>
-      <c r="U333" s="209" t="s">
+      <c r="S333" s="223"/>
+      <c r="T333" s="224"/>
+      <c r="U333" s="215" t="s">
         <v>167</v>
       </c>
-      <c r="V333" s="210"/>
+      <c r="V333" s="216"/>
       <c r="AB333" s="60"/>
       <c r="AC333" s="60"/>
       <c r="AD333" s="60"/>
@@ -12068,21 +12105,21 @@
       <c r="K334" s="40"/>
       <c r="L334" s="41"/>
       <c r="M334" s="45"/>
-      <c r="N334" s="203" t="s">
+      <c r="N334" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="O334" s="204"/>
-      <c r="P334" s="204"/>
-      <c r="Q334" s="205"/>
-      <c r="R334" s="216" t="s">
+      <c r="O334" s="210"/>
+      <c r="P334" s="210"/>
+      <c r="Q334" s="211"/>
+      <c r="R334" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="S334" s="217"/>
-      <c r="T334" s="218"/>
-      <c r="U334" s="214" t="s">
+      <c r="S334" s="223"/>
+      <c r="T334" s="224"/>
+      <c r="U334" s="220" t="s">
         <v>168</v>
       </c>
-      <c r="V334" s="215"/>
+      <c r="V334" s="221"/>
       <c r="AB334" s="60"/>
       <c r="AC334" s="60"/>
       <c r="AD334" s="60"/>
@@ -12102,21 +12139,21 @@
       <c r="K335" s="40"/>
       <c r="L335" s="41"/>
       <c r="M335" s="45"/>
-      <c r="N335" s="203" t="s">
+      <c r="N335" s="209" t="s">
         <v>68</v>
       </c>
-      <c r="O335" s="204"/>
-      <c r="P335" s="204"/>
-      <c r="Q335" s="205"/>
-      <c r="R335" s="216" t="s">
+      <c r="O335" s="210"/>
+      <c r="P335" s="210"/>
+      <c r="Q335" s="211"/>
+      <c r="R335" s="222" t="s">
         <v>159</v>
       </c>
-      <c r="S335" s="217"/>
-      <c r="T335" s="218"/>
-      <c r="U335" s="209" t="s">
+      <c r="S335" s="223"/>
+      <c r="T335" s="224"/>
+      <c r="U335" s="215" t="s">
         <v>169</v>
       </c>
-      <c r="V335" s="210"/>
+      <c r="V335" s="216"/>
       <c r="AB335" s="60"/>
       <c r="AC335" s="60"/>
       <c r="AD335" s="60"/>
@@ -12136,19 +12173,19 @@
       <c r="K336" s="40"/>
       <c r="L336" s="41"/>
       <c r="M336" s="45"/>
-      <c r="N336" s="224" t="s">
+      <c r="N336" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="O336" s="225"/>
-      <c r="P336" s="225"/>
-      <c r="Q336" s="225"/>
-      <c r="R336" s="225"/>
-      <c r="S336" s="225"/>
-      <c r="T336" s="225"/>
-      <c r="U336" s="226" t="s">
+      <c r="O336" s="231"/>
+      <c r="P336" s="231"/>
+      <c r="Q336" s="231"/>
+      <c r="R336" s="231"/>
+      <c r="S336" s="231"/>
+      <c r="T336" s="231"/>
+      <c r="U336" s="232" t="s">
         <v>170</v>
       </c>
-      <c r="V336" s="227"/>
+      <c r="V336" s="233"/>
       <c r="AB336" s="60"/>
       <c r="AC336" s="60"/>
       <c r="AD336" s="60"/>
@@ -12168,17 +12205,17 @@
       <c r="K337" s="40"/>
       <c r="L337" s="41"/>
       <c r="M337" s="45"/>
-      <c r="N337" s="228" t="s">
+      <c r="N337" s="234" t="s">
         <v>70</v>
       </c>
-      <c r="O337" s="229"/>
-      <c r="P337" s="229"/>
-      <c r="Q337" s="229"/>
-      <c r="R337" s="229"/>
-      <c r="S337" s="229"/>
-      <c r="T337" s="229"/>
-      <c r="U337" s="229"/>
-      <c r="V337" s="230"/>
+      <c r="O337" s="235"/>
+      <c r="P337" s="235"/>
+      <c r="Q337" s="235"/>
+      <c r="R337" s="235"/>
+      <c r="S337" s="235"/>
+      <c r="T337" s="235"/>
+      <c r="U337" s="235"/>
+      <c r="V337" s="236"/>
       <c r="AB337" s="60"/>
       <c r="AC337" s="60"/>
       <c r="AD337" s="60"/>
@@ -12204,15 +12241,15 @@
       <c r="O338" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="P338" s="201" t="s">
+      <c r="P338" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="Q338" s="201"/>
-      <c r="R338" s="201"/>
-      <c r="S338" s="201"/>
-      <c r="T338" s="201"/>
-      <c r="U338" s="201"/>
-      <c r="V338" s="202"/>
+      <c r="Q338" s="204"/>
+      <c r="R338" s="204"/>
+      <c r="S338" s="204"/>
+      <c r="T338" s="204"/>
+      <c r="U338" s="204"/>
+      <c r="V338" s="205"/>
       <c r="AB338" s="60"/>
       <c r="AC338" s="60"/>
       <c r="AD338" s="60"/>
@@ -12238,15 +12275,15 @@
       <c r="O339" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="P339" s="231" t="s">
+      <c r="P339" s="237" t="s">
         <v>171</v>
       </c>
-      <c r="Q339" s="231"/>
-      <c r="R339" s="231"/>
-      <c r="S339" s="231"/>
-      <c r="T339" s="231"/>
-      <c r="U339" s="231"/>
-      <c r="V339" s="232"/>
+      <c r="Q339" s="237"/>
+      <c r="R339" s="237"/>
+      <c r="S339" s="237"/>
+      <c r="T339" s="237"/>
+      <c r="U339" s="237"/>
+      <c r="V339" s="238"/>
       <c r="AB339" s="60"/>
       <c r="AC339" s="60"/>
       <c r="AD339" s="60"/>
@@ -12266,19 +12303,19 @@
       <c r="K340" s="40"/>
       <c r="L340" s="41"/>
       <c r="M340" s="45"/>
-      <c r="N340" s="233" t="s">
+      <c r="N340" s="239" t="s">
         <v>72</v>
       </c>
-      <c r="O340" s="234"/>
-      <c r="P340" s="234"/>
-      <c r="Q340" s="234"/>
-      <c r="R340" s="234"/>
-      <c r="S340" s="234"/>
-      <c r="T340" s="234"/>
-      <c r="U340" s="235" t="s">
+      <c r="O340" s="240"/>
+      <c r="P340" s="240"/>
+      <c r="Q340" s="240"/>
+      <c r="R340" s="240"/>
+      <c r="S340" s="240"/>
+      <c r="T340" s="240"/>
+      <c r="U340" s="241" t="s">
         <v>172</v>
       </c>
-      <c r="V340" s="236"/>
+      <c r="V340" s="242"/>
       <c r="AB340" s="60"/>
       <c r="AC340" s="60"/>
       <c r="AD340" s="60"/>
@@ -12298,17 +12335,17 @@
       <c r="K341" s="40"/>
       <c r="L341" s="41"/>
       <c r="M341" s="45"/>
-      <c r="N341" s="219" t="s">
+      <c r="N341" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="O341" s="220"/>
-      <c r="P341" s="220"/>
-      <c r="Q341" s="220"/>
-      <c r="R341" s="220"/>
-      <c r="S341" s="220"/>
-      <c r="T341" s="220"/>
-      <c r="U341" s="220"/>
-      <c r="V341" s="221"/>
+      <c r="O341" s="226"/>
+      <c r="P341" s="226"/>
+      <c r="Q341" s="226"/>
+      <c r="R341" s="226"/>
+      <c r="S341" s="226"/>
+      <c r="T341" s="226"/>
+      <c r="U341" s="226"/>
+      <c r="V341" s="227"/>
       <c r="AB341" s="60"/>
       <c r="AC341" s="60"/>
       <c r="AD341" s="60"/>
@@ -12328,21 +12365,21 @@
       <c r="K342" s="40"/>
       <c r="L342" s="41"/>
       <c r="M342" s="45"/>
-      <c r="N342" s="222" t="s">
+      <c r="N342" s="228" t="s">
         <v>74</v>
       </c>
-      <c r="O342" s="223"/>
-      <c r="P342" s="223"/>
-      <c r="Q342" s="223"/>
+      <c r="O342" s="229"/>
+      <c r="P342" s="229"/>
+      <c r="Q342" s="229"/>
       <c r="R342" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="S342" s="223" t="s">
+      <c r="S342" s="229" t="s">
         <v>174</v>
       </c>
-      <c r="T342" s="223"/>
-      <c r="U342" s="223"/>
-      <c r="V342" s="237"/>
+      <c r="T342" s="229"/>
+      <c r="U342" s="229"/>
+      <c r="V342" s="243"/>
       <c r="AB342" s="60"/>
       <c r="AC342" s="60"/>
       <c r="AD342" s="60"/>
@@ -12362,21 +12399,21 @@
       <c r="K343" s="40"/>
       <c r="L343" s="41"/>
       <c r="M343" s="45"/>
-      <c r="N343" s="265" t="s">
+      <c r="N343" s="271" t="s">
         <v>75</v>
       </c>
-      <c r="O343" s="266"/>
-      <c r="P343" s="266"/>
-      <c r="Q343" s="266"/>
+      <c r="O343" s="272"/>
+      <c r="P343" s="272"/>
+      <c r="Q343" s="273"/>
       <c r="R343" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="S343" s="266" t="s">
+      <c r="S343" s="274" t="s">
         <v>176</v>
       </c>
-      <c r="T343" s="266"/>
-      <c r="U343" s="266"/>
-      <c r="V343" s="267"/>
+      <c r="T343" s="274"/>
+      <c r="U343" s="274"/>
+      <c r="V343" s="275"/>
       <c r="AB343" s="60"/>
       <c r="AC343" s="60" t="s">
         <v>76</v>
@@ -12402,15 +12439,17 @@
       <c r="K344" s="56"/>
       <c r="L344" s="57"/>
       <c r="M344" s="7"/>
-      <c r="N344" s="268"/>
-      <c r="O344" s="269"/>
-      <c r="P344" s="269"/>
-      <c r="Q344" s="269"/>
-      <c r="R344" s="269"/>
-      <c r="S344" s="269"/>
-      <c r="T344" s="269"/>
-      <c r="U344" s="269"/>
-      <c r="V344" s="270"/>
+      <c r="N344" s="276" t="s">
+        <v>194</v>
+      </c>
+      <c r="O344" s="277"/>
+      <c r="P344" s="277"/>
+      <c r="Q344" s="277"/>
+      <c r="R344" s="277"/>
+      <c r="S344" s="277"/>
+      <c r="T344" s="277"/>
+      <c r="U344" s="277"/>
+      <c r="V344" s="278"/>
       <c r="AB344" s="65"/>
       <c r="AC344" s="66" t="s">
         <v>77</v>
@@ -12424,35 +12463,35 @@
     </row>
     <row r="345" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
-      <c r="B345" s="277" t="s">
+      <c r="B345" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="C345" s="277"/>
+      <c r="C345" s="285"/>
       <c r="D345" s="30"/>
-      <c r="E345" s="277" t="s">
+      <c r="E345" s="285" t="s">
         <v>79</v>
       </c>
-      <c r="F345" s="277"/>
+      <c r="F345" s="285"/>
       <c r="G345" s="30"/>
-      <c r="H345" s="277" t="s">
+      <c r="H345" s="285" t="s">
         <v>80</v>
       </c>
-      <c r="I345" s="277"/>
+      <c r="I345" s="285"/>
       <c r="J345" s="30"/>
-      <c r="K345" s="277" t="s">
+      <c r="K345" s="285" t="s">
         <v>81</v>
       </c>
-      <c r="L345" s="277"/>
+      <c r="L345" s="285"/>
       <c r="M345" s="7"/>
-      <c r="N345" s="271"/>
-      <c r="O345" s="272"/>
-      <c r="P345" s="272"/>
-      <c r="Q345" s="272"/>
-      <c r="R345" s="272"/>
-      <c r="S345" s="272"/>
-      <c r="T345" s="272"/>
-      <c r="U345" s="272"/>
-      <c r="V345" s="273"/>
+      <c r="N345" s="279"/>
+      <c r="O345" s="280"/>
+      <c r="P345" s="280"/>
+      <c r="Q345" s="280"/>
+      <c r="R345" s="280"/>
+      <c r="S345" s="280"/>
+      <c r="T345" s="280"/>
+      <c r="U345" s="280"/>
+      <c r="V345" s="281"/>
       <c r="AB345" s="65"/>
       <c r="AC345" s="66" t="s">
         <v>82</v>
@@ -12464,7 +12503,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="346" spans="1:31" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:31" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6"/>
       <c r="B346" s="67"/>
       <c r="C346" s="67"/>
@@ -12478,15 +12517,15 @@
       <c r="K346" s="67"/>
       <c r="L346" s="67"/>
       <c r="M346" s="7"/>
-      <c r="N346" s="274"/>
-      <c r="O346" s="275"/>
-      <c r="P346" s="275"/>
-      <c r="Q346" s="275"/>
-      <c r="R346" s="275"/>
-      <c r="S346" s="275"/>
-      <c r="T346" s="275"/>
-      <c r="U346" s="275"/>
-      <c r="V346" s="276"/>
+      <c r="N346" s="282"/>
+      <c r="O346" s="283"/>
+      <c r="P346" s="283"/>
+      <c r="Q346" s="283"/>
+      <c r="R346" s="283"/>
+      <c r="S346" s="283"/>
+      <c r="T346" s="283"/>
+      <c r="U346" s="283"/>
+      <c r="V346" s="284"/>
       <c r="AB346" s="65" t="s">
         <v>84</v>
       </c>
@@ -12508,16 +12547,16 @@
       <c r="K347" s="2"/>
       <c r="L347" s="2"/>
       <c r="M347" s="69"/>
-      <c r="N347" s="238"/>
-      <c r="O347" s="239"/>
-      <c r="P347" s="240"/>
-      <c r="Q347" s="247" t="s">
+      <c r="N347" s="244"/>
+      <c r="O347" s="245"/>
+      <c r="P347" s="246"/>
+      <c r="Q347" s="253" t="s">
         <v>85</v>
       </c>
-      <c r="R347" s="248"/>
-      <c r="S347" s="248"/>
-      <c r="T347" s="248"/>
-      <c r="U347" s="248"/>
+      <c r="R347" s="254"/>
+      <c r="S347" s="254"/>
+      <c r="T347" s="254"/>
+      <c r="U347" s="254"/>
       <c r="V347" s="70" t="s">
         <v>86</v>
       </c>
@@ -12548,17 +12587,17 @@
       <c r="K348" s="5"/>
       <c r="L348" s="5"/>
       <c r="M348" s="71"/>
-      <c r="N348" s="241"/>
-      <c r="O348" s="242"/>
-      <c r="P348" s="243"/>
-      <c r="Q348" s="249" t="s">
+      <c r="N348" s="247"/>
+      <c r="O348" s="248"/>
+      <c r="P348" s="249"/>
+      <c r="Q348" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="R348" s="250"/>
-      <c r="S348" s="250"/>
-      <c r="T348" s="250"/>
-      <c r="U348" s="250"/>
-      <c r="V348" s="251"/>
+      <c r="R348" s="256"/>
+      <c r="S348" s="256"/>
+      <c r="T348" s="256"/>
+      <c r="U348" s="256"/>
+      <c r="V348" s="257"/>
       <c r="AB348" s="65"/>
       <c r="AC348" s="66" t="s">
         <v>54</v>
@@ -12584,17 +12623,17 @@
       <c r="K349" s="5"/>
       <c r="L349" s="5"/>
       <c r="M349" s="71"/>
-      <c r="N349" s="241"/>
-      <c r="O349" s="242"/>
-      <c r="P349" s="243"/>
-      <c r="Q349" s="249" t="s">
+      <c r="N349" s="247"/>
+      <c r="O349" s="248"/>
+      <c r="P349" s="249"/>
+      <c r="Q349" s="255" t="s">
         <v>90</v>
       </c>
-      <c r="R349" s="250"/>
-      <c r="S349" s="250"/>
-      <c r="T349" s="250"/>
-      <c r="U349" s="250"/>
-      <c r="V349" s="251"/>
+      <c r="R349" s="256"/>
+      <c r="S349" s="256"/>
+      <c r="T349" s="256"/>
+      <c r="U349" s="256"/>
+      <c r="V349" s="257"/>
       <c r="AB349" s="65"/>
       <c r="AC349" s="65"/>
       <c r="AD349" s="65"/>
@@ -12614,15 +12653,15 @@
       <c r="K350" s="5"/>
       <c r="L350" s="5"/>
       <c r="M350" s="71"/>
-      <c r="N350" s="241"/>
-      <c r="O350" s="242"/>
-      <c r="P350" s="243"/>
-      <c r="Q350" s="252"/>
-      <c r="R350" s="253"/>
-      <c r="S350" s="253"/>
-      <c r="T350" s="253"/>
-      <c r="U350" s="253"/>
-      <c r="V350" s="254"/>
+      <c r="N350" s="247"/>
+      <c r="O350" s="248"/>
+      <c r="P350" s="249"/>
+      <c r="Q350" s="258"/>
+      <c r="R350" s="259"/>
+      <c r="S350" s="259"/>
+      <c r="T350" s="259"/>
+      <c r="U350" s="259"/>
+      <c r="V350" s="260"/>
       <c r="AB350" s="65" t="s">
         <v>91</v>
       </c>
@@ -12644,21 +12683,21 @@
       <c r="K351" s="5"/>
       <c r="L351" s="5"/>
       <c r="M351" s="71"/>
-      <c r="N351" s="241"/>
-      <c r="O351" s="242"/>
-      <c r="P351" s="243"/>
-      <c r="Q351" s="255" t="s">
+      <c r="N351" s="247"/>
+      <c r="O351" s="248"/>
+      <c r="P351" s="249"/>
+      <c r="Q351" s="261" t="s">
         <v>92</v>
       </c>
-      <c r="R351" s="257" t="s">
+      <c r="R351" s="263" t="s">
         <v>93</v>
       </c>
-      <c r="S351" s="258"/>
-      <c r="T351" s="259"/>
-      <c r="U351" s="257" t="s">
+      <c r="S351" s="264"/>
+      <c r="T351" s="265"/>
+      <c r="U351" s="263" t="s">
         <v>94</v>
       </c>
-      <c r="V351" s="263"/>
+      <c r="V351" s="269"/>
       <c r="AB351" s="65" t="s">
         <v>95</v>
       </c>
@@ -12686,15 +12725,15 @@
       <c r="K352" s="73"/>
       <c r="L352" s="73"/>
       <c r="M352" s="74"/>
-      <c r="N352" s="244"/>
-      <c r="O352" s="245"/>
-      <c r="P352" s="246"/>
-      <c r="Q352" s="256"/>
-      <c r="R352" s="260"/>
-      <c r="S352" s="261"/>
-      <c r="T352" s="262"/>
-      <c r="U352" s="260"/>
-      <c r="V352" s="264"/>
+      <c r="N352" s="250"/>
+      <c r="O352" s="251"/>
+      <c r="P352" s="252"/>
+      <c r="Q352" s="262"/>
+      <c r="R352" s="266"/>
+      <c r="S352" s="267"/>
+      <c r="T352" s="268"/>
+      <c r="U352" s="266"/>
+      <c r="V352" s="270"/>
       <c r="AB352" s="65"/>
       <c r="AC352" s="75" t="s">
         <v>97</v>
